--- a/BackTest/2020-01-23 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-23 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N130"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>5790056.49245207</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>5381131.151752071</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>5262805.842552071</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>5094542.12035207</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>5008878.00145207</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>5012193.504452069</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>4854517.20565207</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1408,15 @@
         <v>4756392.924152071</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,22 +3718,19 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>7.232</v>
       </c>
       <c r="J101" t="n">
         <v>7.232</v>
       </c>
-      <c r="K101" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4062,22 +3757,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
         <v>7.232</v>
       </c>
-      <c r="L102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4102,26 +3794,21 @@
         <v>4200586.896714451</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K103" t="n">
         <v>7.232</v>
       </c>
-      <c r="L103" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4146,1152 +3833,967 @@
         <v>4050621.573314451</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="K104" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L104" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1673.949</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4052295.522314451</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="F106" t="n">
+        <v>19260.0948</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4052295.522314451</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34807.685</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4017487.837314451</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15595.389</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4001892.448314451</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2122.1788</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4004014.627114451</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="F110" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4003945.52711445</v>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J110" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4694.9491</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4008640.47621445</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F112" t="n">
+        <v>69</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="J112" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F113" t="n">
+        <v>60002</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F114" t="n">
+        <v>138481.3184</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="F115" t="n">
+        <v>33530</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4042101.47621445</v>
+      </c>
+      <c r="H115" t="n">
+        <v>2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J115" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F116" t="n">
+        <v>69</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F117" t="n">
+        <v>61825.0981</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F118" t="n">
+        <v>41651.6388</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="F119" t="n">
+        <v>68061.17479999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4110093.65101445</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F120" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4110005.15101445</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2325</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4112330.15101445</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F122" t="n">
+        <v>113149.7586</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3999180.392414451</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="F123" t="n">
+        <v>292775.2436</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3999180.392414451</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="E124" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10064</v>
+      </c>
+      <c r="G124" t="n">
+        <v>3989116.392414451</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="C125" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7.252</v>
+      </c>
+      <c r="E125" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F125" t="n">
+        <v>300003</v>
+      </c>
+      <c r="G125" t="n">
+        <v>3689113.392414451</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F126" t="n">
+        <v>636.1645</v>
+      </c>
+      <c r="G126" t="n">
+        <v>3689113.392414451</v>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F127" t="n">
+        <v>63493.5973</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3689113.392414451</v>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10685.9689</v>
+      </c>
+      <c r="G128" t="n">
+        <v>3689113.392414451</v>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J128" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.229</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10003.0009</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3689113.392414451</v>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+      <c r="I129" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J129" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1673.949</v>
-      </c>
-      <c r="G105" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.241</v>
-      </c>
-      <c r="K105" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.21</v>
+      </c>
+      <c r="F130" t="n">
+        <v>12351.8152</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3676761.577214451</v>
+      </c>
+      <c r="H130" t="n">
+        <v>2</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J130" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="F106" t="n">
-        <v>19260.0948</v>
-      </c>
-      <c r="G106" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="K106" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F107" t="n">
-        <v>34807.685</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4017487.837314451</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="K107" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C108" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="F108" t="n">
-        <v>15595.389</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4001892.448314451</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K108" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2122.1788</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4004014.627114451</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="K109" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="C110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="F110" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4003945.52711445</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K110" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4694.9491</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4008640.47621445</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="K111" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F112" t="n">
-        <v>69</v>
-      </c>
-      <c r="G112" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="K112" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F113" t="n">
-        <v>60002</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="K113" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F114" t="n">
-        <v>138481.3184</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="K114" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="F115" t="n">
-        <v>33530</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4042101.47621445</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="K115" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F116" t="n">
-        <v>69</v>
-      </c>
-      <c r="G116" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="K116" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F117" t="n">
-        <v>61825.0981</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="K117" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F118" t="n">
-        <v>41651.6388</v>
-      </c>
-      <c r="G118" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="F119" t="n">
-        <v>68061.17479999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>4110093.65101445</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F120" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>4110005.15101445</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2325</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4112330.15101445</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F122" t="n">
-        <v>113149.7586</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3999180.392414451</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>7.252</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7.252</v>
-      </c>
-      <c r="F123" t="n">
-        <v>292775.2436</v>
-      </c>
-      <c r="G123" t="n">
-        <v>3999180.392414451</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>7.253</v>
-      </c>
-      <c r="C124" t="n">
-        <v>7.253</v>
-      </c>
-      <c r="D124" t="n">
-        <v>7.253</v>
-      </c>
-      <c r="E124" t="n">
-        <v>7.253</v>
-      </c>
-      <c r="F124" t="n">
-        <v>10064</v>
-      </c>
-      <c r="G124" t="n">
-        <v>3989116.392414451</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>7.252</v>
-      </c>
-      <c r="C125" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D125" t="n">
-        <v>7.252</v>
-      </c>
-      <c r="E125" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F125" t="n">
-        <v>300003</v>
-      </c>
-      <c r="G125" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="C126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F126" t="n">
-        <v>636.1645</v>
-      </c>
-      <c r="G126" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="C127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F127" t="n">
-        <v>63493.5973</v>
-      </c>
-      <c r="G127" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="C128" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D128" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E128" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10685.9689</v>
-      </c>
-      <c r="G128" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K128" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>7.229</v>
-      </c>
-      <c r="C129" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="D129" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7.229</v>
-      </c>
-      <c r="F129" t="n">
-        <v>10003.0009</v>
-      </c>
-      <c r="G129" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K129" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="D130" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E130" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="F130" t="n">
-        <v>12351.8152</v>
-      </c>
-      <c r="G130" t="n">
-        <v>3676761.577214451</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K130" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-23 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>5827196.061952069</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>5826587.07605207</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>5826654.07605207</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>5823699.57265207</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5839501.76545207</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5790056.49245207</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5407652.61855207</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5381131.151752071</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5262805.842552071</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>5094542.12035207</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>5008878.00145207</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>5012193.504452069</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>4854517.20565207</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>4756392.924152071</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -3685,10 +3685,14 @@
         <v>3986923.172714451</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7.24</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3718,15 +3722,19 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>7.232</v>
       </c>
       <c r="J101" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
+        <v>7.24</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3755,11 +3763,13 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J102" t="n">
-        <v>7.232</v>
+        <v>7.24</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -3794,17 +3804,15 @@
         <v>4200586.896714451</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7.35</v>
+      </c>
       <c r="J103" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>7.35</v>
+      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3833,11 +3841,19 @@
         <v>4050621.573314451</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="J104" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3866,11 +3882,19 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="J105" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3899,11 +3923,19 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3932,11 +3964,19 @@
         <v>4017487.837314451</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +4005,19 @@
         <v>4001892.448314451</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4046,19 @@
         <v>4004014.627114451</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4031,15 +4087,19 @@
         <v>4003945.52711445</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>7.25</v>
       </c>
       <c r="J110" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4068,17 +4128,17 @@
         <v>4008640.47621445</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>7.247</v>
       </c>
       <c r="J111" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4109,17 +4169,17 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>7.34</v>
       </c>
       <c r="J112" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4150,15 +4210,19 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>7.254</v>
       </c>
       <c r="J113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4187,17 +4251,17 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>7.254</v>
       </c>
       <c r="J114" t="n">
-        <v>7.254</v>
+        <v>7.35</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4228,17 +4292,17 @@
         <v>4042101.47621445</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>7.254</v>
       </c>
       <c r="J115" t="n">
-        <v>7.254</v>
+        <v>7.35</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4269,15 +4333,19 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>7.337</v>
       </c>
       <c r="J116" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4306,15 +4374,17 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7.254</v>
+      </c>
       <c r="J117" t="n">
-        <v>7.337</v>
+        <v>7.35</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4345,15 +4415,17 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.254</v>
+      </c>
       <c r="J118" t="n">
-        <v>7.337</v>
+        <v>7.35</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -4384,11 +4456,19 @@
         <v>4110093.65101445</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4417,11 +4497,19 @@
         <v>4110005.15101445</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="J120" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4450,11 +4538,19 @@
         <v>4112330.15101445</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J121" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4483,11 +4579,19 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J122" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4516,11 +4620,19 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4549,11 +4661,19 @@
         <v>3989116.392414451</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4582,11 +4702,19 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4615,15 +4743,19 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>7.23</v>
       </c>
       <c r="J126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4652,17 +4784,17 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>7.23</v>
       </c>
       <c r="J127" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L127" t="n">
@@ -4693,17 +4825,17 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>7.23</v>
       </c>
       <c r="J128" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4734,17 +4866,17 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>7.23</v>
       </c>
       <c r="J129" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4775,13 +4907,13 @@
         <v>3676761.577214451</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>7.23</v>
       </c>
       <c r="J130" t="n">
-        <v>7.23</v>
+        <v>7.35</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4794,6 +4926,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-23 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,7 +616,7 @@
         <v>5839501.76545207</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5790056.49245207</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>5407652.61855207</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -3685,14 +3685,10 @@
         <v>3986923.172714451</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3722,876 +3718,726 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F102" t="n">
+        <v>4217.6612</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4200656.096714451</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="F103" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4200586.896714451</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.243</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="F104" t="n">
+        <v>149965.3234</v>
+      </c>
+      <c r="G104" t="n">
+        <v>4050621.573314451</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1673.949</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4052295.522314451</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="F106" t="n">
+        <v>19260.0948</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4052295.522314451</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F107" t="n">
+        <v>34807.685</v>
+      </c>
+      <c r="G107" t="n">
+        <v>4017487.837314451</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="F108" t="n">
+        <v>15595.389</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4001892.448314451</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F109" t="n">
+        <v>2122.1788</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4004014.627114451</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="F110" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="G110" t="n">
+        <v>4003945.52711445</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4694.9491</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4008640.47621445</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="J111" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F112" t="n">
+        <v>69</v>
+      </c>
+      <c r="G112" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F102" t="n">
-        <v>4217.6612</v>
-      </c>
-      <c r="G102" t="n">
-        <v>4200656.096714451</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K102" t="inlineStr">
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F113" t="n">
+        <v>60002</v>
+      </c>
+      <c r="G113" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>7.247</v>
+      </c>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="C103" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="F103" t="n">
-        <v>69.2</v>
-      </c>
-      <c r="G103" t="n">
-        <v>4200586.896714451</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.243</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.241</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.243</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.241</v>
-      </c>
-      <c r="F104" t="n">
-        <v>149965.3234</v>
-      </c>
-      <c r="G104" t="n">
-        <v>4050621.573314451</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K104" t="inlineStr">
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F114" t="n">
+        <v>138481.3184</v>
+      </c>
+      <c r="G114" t="n">
+        <v>4008571.47621445</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="F115" t="n">
+        <v>33530</v>
+      </c>
+      <c r="G115" t="n">
+        <v>4042101.47621445</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F116" t="n">
+        <v>69</v>
+      </c>
+      <c r="G116" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F117" t="n">
+        <v>61825.0981</v>
+      </c>
+      <c r="G117" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F118" t="n">
+        <v>41651.6388</v>
+      </c>
+      <c r="G118" t="n">
+        <v>4042032.47621445</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.328</v>
+      </c>
+      <c r="F119" t="n">
+        <v>68061.17479999999</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4110093.65101445</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="F120" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="G120" t="n">
+        <v>4110005.15101445</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="F121" t="n">
+        <v>2325</v>
+      </c>
+      <c r="G121" t="n">
+        <v>4112330.15101445</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="F122" t="n">
+        <v>113149.7586</v>
+      </c>
+      <c r="G122" t="n">
+        <v>3999180.392414451</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="F105" t="n">
-        <v>1673.949</v>
-      </c>
-      <c r="G105" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>7.241</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="F106" t="n">
-        <v>19260.0948</v>
-      </c>
-      <c r="G106" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F107" t="n">
-        <v>34807.685</v>
-      </c>
-      <c r="G107" t="n">
-        <v>4017487.837314451</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C108" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="F108" t="n">
-        <v>15595.389</v>
-      </c>
-      <c r="G108" t="n">
-        <v>4001892.448314451</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="F109" t="n">
-        <v>2122.1788</v>
-      </c>
-      <c r="G109" t="n">
-        <v>4004014.627114451</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="J109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="C110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="F110" t="n">
-        <v>69.09999999999999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>4003945.52711445</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4694.9491</v>
-      </c>
-      <c r="G111" t="n">
-        <v>4008640.47621445</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F112" t="n">
-        <v>69</v>
-      </c>
-      <c r="G112" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="J112" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F113" t="n">
-        <v>60002</v>
-      </c>
-      <c r="G113" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J113" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F114" t="n">
-        <v>138481.3184</v>
-      </c>
-      <c r="G114" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J114" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="F115" t="n">
-        <v>33530</v>
-      </c>
-      <c r="G115" t="n">
-        <v>4042101.47621445</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J115" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F116" t="n">
-        <v>69</v>
-      </c>
-      <c r="G116" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>7.337</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F117" t="n">
-        <v>61825.0981</v>
-      </c>
-      <c r="G117" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F118" t="n">
-        <v>41651.6388</v>
-      </c>
-      <c r="G118" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="F119" t="n">
-        <v>68061.17479999999</v>
-      </c>
-      <c r="G119" t="n">
-        <v>4110093.65101445</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="F120" t="n">
-        <v>88.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>4110005.15101445</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>7.328</v>
-      </c>
-      <c r="J120" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="F121" t="n">
-        <v>2325</v>
-      </c>
-      <c r="G121" t="n">
-        <v>4112330.15101445</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J121" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="F122" t="n">
-        <v>113149.7586</v>
-      </c>
-      <c r="G122" t="n">
-        <v>3999180.392414451</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="J122" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +4466,10 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,14 +4503,10 @@
         <v>3989116.392414451</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4702,14 +4540,10 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>7.253</v>
-      </c>
-      <c r="J125" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4743,14 +4577,10 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J126" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4784,14 +4614,10 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J127" t="n">
-        <v>7.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4830,9 +4656,7 @@
       <c r="I128" t="n">
         <v>7.23</v>
       </c>
-      <c r="J128" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4871,9 +4695,7 @@
       <c r="I129" t="n">
         <v>7.23</v>
       </c>
-      <c r="J129" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4912,9 +4734,7 @@
       <c r="I130" t="n">
         <v>7.23</v>
       </c>
-      <c r="J130" t="n">
-        <v>7.35</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,6 +4746,6 @@
       <c r="M130" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-23 BackTest ORBS.xlsx
@@ -583,7 +583,7 @@
         <v>5790122.49245207</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>5839501.76545207</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5790056.49245207</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5406116.87715207</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>5381131.151752071</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>5382353.779252071</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>5262805.842552071</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3652,10 +3652,14 @@
         <v>3986992.472714451</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7.234</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3685,11 +3689,19 @@
         <v>3986923.172714451</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3718,11 +3730,19 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>7.232</v>
+      </c>
+      <c r="J101" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3751,10 +3771,14 @@
         <v>4200656.096714451</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
@@ -3784,11 +3808,19 @@
         <v>4200586.896714451</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="J103" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3849,19 @@
         <v>4050621.573314451</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>7.242</v>
+      </c>
+      <c r="J104" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3850,11 +3890,19 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>7.241</v>
+      </c>
+      <c r="J105" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3883,11 +3931,19 @@
         <v>4052295.522314451</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="J106" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3972,19 @@
         <v>4017487.837314451</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>7.261</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3949,11 +4013,19 @@
         <v>4001892.448314451</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3982,11 +4054,19 @@
         <v>4004014.627114451</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>7.246</v>
+      </c>
+      <c r="J109" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4015,11 +4095,19 @@
         <v>4003945.52711445</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="J110" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4054,9 +4142,13 @@
         <v>7.247</v>
       </c>
       <c r="J111" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4085,15 +4177,17 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>7.34</v>
+      </c>
       <c r="J112" t="n">
-        <v>7.247</v>
+        <v>7.35</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L112" t="n">
@@ -4124,15 +4218,17 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>7.254</v>
+      </c>
       <c r="J113" t="n">
-        <v>7.247</v>
+        <v>7.35</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L113" t="n">
@@ -4163,11 +4259,19 @@
         <v>4008571.47621445</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J114" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4196,11 +4300,19 @@
         <v>4042101.47621445</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J115" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4341,19 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>7.337</v>
+      </c>
+      <c r="J116" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4382,19 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J117" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4423,19 @@
         <v>4042032.47621445</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J118" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4328,11 +4464,19 @@
         <v>4110093.65101445</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J119" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4427,15 +4583,15 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
@@ -4466,10 +4622,14 @@
         <v>3999180.392414451</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,10 +4663,14 @@
         <v>3989116.392414451</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>7.254</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4540,10 +4704,14 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>7.253</v>
+      </c>
+      <c r="J125" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4577,10 +4745,14 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J126" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4614,10 +4786,14 @@
         <v>3689113.392414451</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="J127" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4656,7 +4832,9 @@
       <c r="I128" t="n">
         <v>7.23</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4695,7 +4873,9 @@
       <c r="I129" t="n">
         <v>7.23</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4734,7 +4914,9 @@
       <c r="I130" t="n">
         <v>7.23</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>7.35</v>
+      </c>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-23 BackTest ORBS.xlsx
+++ b/BackTest/2020-01-23 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M130"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>66.7115</v>
       </c>
       <c r="G2" t="n">
-        <v>5827196.061952069</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>608.9859</v>
       </c>
       <c r="G3" t="n">
-        <v>5826587.07605207</v>
-      </c>
-      <c r="H3" t="n">
         <v>2</v>
       </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>5826654.07605207</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2954.5034</v>
       </c>
       <c r="G5" t="n">
-        <v>5823699.57265207</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>33577.0802</v>
       </c>
       <c r="G6" t="n">
-        <v>5790122.49245207</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>49379.273</v>
       </c>
       <c r="G7" t="n">
-        <v>5839501.76545207</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>49445.273</v>
       </c>
       <c r="G8" t="n">
-        <v>5790056.49245207</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>383939.6153</v>
       </c>
       <c r="G9" t="n">
-        <v>5406116.87715207</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>70</v>
       </c>
       <c r="G10" t="n">
-        <v>5406116.87715207</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1535.7414</v>
       </c>
       <c r="G11" t="n">
-        <v>5407652.61855207</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1982.503</v>
       </c>
       <c r="G12" t="n">
-        <v>5407652.61855207</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>5407752.61855207</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>26621.4668</v>
       </c>
       <c r="G14" t="n">
-        <v>5381131.151752071</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1222.6275</v>
       </c>
       <c r="G15" t="n">
-        <v>5382353.779252071</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>119547.9367</v>
       </c>
       <c r="G16" t="n">
-        <v>5262805.842552071</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>169693.1221</v>
       </c>
       <c r="G17" t="n">
-        <v>5093112.72045207</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>138.4882</v>
       </c>
       <c r="G18" t="n">
-        <v>5093251.20865207</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>1224.9117</v>
       </c>
       <c r="G19" t="n">
-        <v>5093251.20865207</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>1290.9117</v>
       </c>
       <c r="G20" t="n">
-        <v>5094542.12035207</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>85664.1189</v>
       </c>
       <c r="G21" t="n">
-        <v>5008878.00145207</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>3315.503</v>
       </c>
       <c r="G22" t="n">
-        <v>5012193.504452069</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>3000</v>
       </c>
       <c r="G23" t="n">
-        <v>5015193.504452069</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>83708.2052</v>
       </c>
       <c r="G24" t="n">
-        <v>4931485.29925207</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>23142.029</v>
       </c>
       <c r="G25" t="n">
-        <v>4931485.29925207</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>172631.8632</v>
       </c>
       <c r="G26" t="n">
-        <v>4758853.43605207</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1338.5195</v>
       </c>
       <c r="G27" t="n">
-        <v>4760191.95555207</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>51610.9403</v>
       </c>
       <c r="G28" t="n">
-        <v>4760191.95555207</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>94325.2501</v>
       </c>
       <c r="G29" t="n">
-        <v>4854517.20565207</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>38097.0949</v>
       </c>
       <c r="G30" t="n">
-        <v>4854517.20565207</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>98124.2815</v>
       </c>
       <c r="G31" t="n">
-        <v>4756392.924152071</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>6727.8228</v>
       </c>
       <c r="G32" t="n">
-        <v>4756392.924152071</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>110421.0439</v>
       </c>
       <c r="G33" t="n">
-        <v>4645971.880252071</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>6793.0923</v>
       </c>
       <c r="G34" t="n">
-        <v>4652764.97255207</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>303</v>
       </c>
       <c r="G35" t="n">
-        <v>4652461.97255207</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>68</v>
       </c>
       <c r="G36" t="n">
-        <v>4652529.97255207</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>251052.2758</v>
       </c>
       <c r="G37" t="n">
-        <v>4401477.69675207</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>428347.4903</v>
       </c>
       <c r="G38" t="n">
-        <v>4401477.69675207</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>348.017</v>
       </c>
       <c r="G39" t="n">
-        <v>4401825.71375207</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3461.8863</v>
       </c>
       <c r="G40" t="n">
-        <v>4398363.82745207</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>18008.4136</v>
       </c>
       <c r="G41" t="n">
-        <v>4398363.82745207</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>3047.2328</v>
       </c>
       <c r="G42" t="n">
-        <v>4401411.06025207</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>69703.13740000001</v>
       </c>
       <c r="G43" t="n">
-        <v>4401411.06025207</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>200</v>
       </c>
       <c r="G44" t="n">
-        <v>4401411.06025207</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>100</v>
       </c>
       <c r="G45" t="n">
-        <v>4401411.06025207</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>221812.7956</v>
       </c>
       <c r="G46" t="n">
-        <v>4179598.264652071</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>138.006</v>
       </c>
       <c r="G47" t="n">
-        <v>4179736.270652071</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>1469.3</v>
       </c>
       <c r="G48" t="n">
-        <v>4178266.970652071</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>138.0046</v>
       </c>
       <c r="G49" t="n">
-        <v>4178404.975252071</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>69.3</v>
       </c>
       <c r="G50" t="n">
-        <v>4178335.675252071</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>45625.929</v>
       </c>
       <c r="G51" t="n">
-        <v>4223961.604252071</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>17541.3307</v>
       </c>
       <c r="G52" t="n">
-        <v>4206420.273552071</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>318.8326</v>
       </c>
       <c r="G53" t="n">
-        <v>4206739.106152072</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>138.2476</v>
       </c>
       <c r="G54" t="n">
-        <v>4206877.353752072</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G55" t="n">
-        <v>4206808.253752072</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>70</v>
       </c>
       <c r="G56" t="n">
-        <v>4206878.253752072</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>68.7466</v>
       </c>
       <c r="G57" t="n">
-        <v>4206947.000352073</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G58" t="n">
-        <v>4206878.400352073</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>139.0631</v>
       </c>
       <c r="G59" t="n">
-        <v>4207017.463452073</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>68.59999999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>4206948.863452073</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>5285.0413</v>
       </c>
       <c r="G61" t="n">
-        <v>4206948.863452073</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>60664.4264</v>
       </c>
       <c r="G62" t="n">
-        <v>4146284.437052073</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>26483.6571</v>
       </c>
       <c r="G63" t="n">
-        <v>4146284.437052073</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>470.2899</v>
       </c>
       <c r="G64" t="n">
-        <v>4146754.726952073</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>14114.4628</v>
       </c>
       <c r="G65" t="n">
-        <v>4132640.264152073</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>7378.8453</v>
       </c>
       <c r="G66" t="n">
-        <v>4140019.109452073</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>5621.1547</v>
       </c>
       <c r="G67" t="n">
-        <v>4140019.109452073</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>238.7079</v>
       </c>
       <c r="G68" t="n">
-        <v>4140257.817352073</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>68.40000000000001</v>
       </c>
       <c r="G69" t="n">
-        <v>4140189.417352073</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>18316.6354</v>
       </c>
       <c r="G70" t="n">
-        <v>4121872.781952073</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>796.0617</v>
       </c>
       <c r="G71" t="n">
-        <v>4122668.843652073</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>100</v>
       </c>
       <c r="G72" t="n">
-        <v>4122768.843652073</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>20933.16873762159</v>
       </c>
       <c r="G73" t="n">
-        <v>4101835.674914452</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>68.7</v>
       </c>
       <c r="G74" t="n">
-        <v>4101766.974914452</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>52548.9329</v>
       </c>
       <c r="G75" t="n">
-        <v>4049218.042014452</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>54962.6156</v>
       </c>
       <c r="G76" t="n">
-        <v>3994255.426414452</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>70</v>
       </c>
       <c r="G77" t="n">
-        <v>3994325.426414452</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>164637.865</v>
       </c>
       <c r="G78" t="n">
-        <v>3829687.561414451</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,21 @@
         <v>138.513</v>
       </c>
       <c r="G79" t="n">
-        <v>3829826.074414451</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>7.23</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2789,19 @@
         <v>139.3</v>
       </c>
       <c r="G80" t="n">
-        <v>3829686.774414451</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2823,19 @@
         <v>137.8225</v>
       </c>
       <c r="G81" t="n">
-        <v>3829686.774414451</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2857,19 @@
         <v>138.589</v>
       </c>
       <c r="G82" t="n">
-        <v>3829825.363414451</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2891,19 @@
         <v>19993.1608</v>
       </c>
       <c r="G83" t="n">
-        <v>3829825.363414451</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2925,19 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>3829756.263414451</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2959,19 @@
         <v>70</v>
       </c>
       <c r="G85" t="n">
-        <v>3829826.263414451</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2993,19 @@
         <v>68.6365</v>
       </c>
       <c r="G86" t="n">
-        <v>3829894.899914451</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3027,19 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G87" t="n">
-        <v>3829825.799914451</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3061,19 @@
         <v>91567.41160000001</v>
       </c>
       <c r="G88" t="n">
-        <v>3921393.211514452</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3095,19 @@
         <v>16689.9938</v>
       </c>
       <c r="G89" t="n">
-        <v>3938083.205314451</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3129,19 @@
         <v>143496.1344</v>
       </c>
       <c r="G90" t="n">
-        <v>4081579.339714451</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3163,19 @@
         <v>88893.41130000001</v>
       </c>
       <c r="G91" t="n">
-        <v>4170472.751014451</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3197,19 @@
         <v>69</v>
       </c>
       <c r="G92" t="n">
-        <v>4170403.751014451</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3231,19 @@
         <v>13582.5133</v>
       </c>
       <c r="G93" t="n">
-        <v>4170403.751014451</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3265,19 @@
         <v>2980.8185</v>
       </c>
       <c r="G94" t="n">
-        <v>4170403.751014451</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3299,19 @@
         <v>3082</v>
       </c>
       <c r="G95" t="n">
-        <v>4170403.751014451</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3333,19 @@
         <v>85504.5931</v>
       </c>
       <c r="G96" t="n">
-        <v>4170403.751014451</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3367,19 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G97" t="n">
-        <v>4170334.651014451</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3401,19 @@
         <v>196152.9405</v>
       </c>
       <c r="G98" t="n">
-        <v>3974181.710514451</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,22 +3435,19 @@
         <v>12810.7622</v>
       </c>
       <c r="G99" t="n">
-        <v>3986992.472714451</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="J99" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3686,26 +3469,19 @@
         <v>69.3</v>
       </c>
       <c r="G100" t="n">
-        <v>3986923.172714451</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J100" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3727,26 +3503,19 @@
         <v>213732.924</v>
       </c>
       <c r="G101" t="n">
-        <v>4200656.096714451</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7.232</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7.234</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,22 +3537,19 @@
         <v>4217.6612</v>
       </c>
       <c r="G102" t="n">
-        <v>4200656.096714451</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J102" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3805,26 +3571,19 @@
         <v>69.2</v>
       </c>
       <c r="G103" t="n">
-        <v>4200586.896714451</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J103" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3846,26 +3605,19 @@
         <v>149965.3234</v>
       </c>
       <c r="G104" t="n">
-        <v>4050621.573314451</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>7.242</v>
-      </c>
-      <c r="J104" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3887,26 +3639,19 @@
         <v>1673.949</v>
       </c>
       <c r="G105" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>7.241</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3928,26 +3673,19 @@
         <v>19260.0948</v>
       </c>
       <c r="G106" t="n">
-        <v>4052295.522314451</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="J106" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3969,26 +3707,19 @@
         <v>34807.685</v>
       </c>
       <c r="G107" t="n">
-        <v>4017487.837314451</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.261</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4010,26 +3741,19 @@
         <v>15595.389</v>
       </c>
       <c r="G108" t="n">
-        <v>4001892.448314451</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4051,26 +3775,19 @@
         <v>2122.1788</v>
       </c>
       <c r="G109" t="n">
-        <v>4004014.627114451</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>7.246</v>
-      </c>
-      <c r="J109" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4092,26 +3809,19 @@
         <v>69.09999999999999</v>
       </c>
       <c r="G110" t="n">
-        <v>4003945.52711445</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="J110" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4133,26 +3843,19 @@
         <v>4694.9491</v>
       </c>
       <c r="G111" t="n">
-        <v>4008640.47621445</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>7.247</v>
-      </c>
-      <c r="J111" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4174,26 +3877,19 @@
         <v>69</v>
       </c>
       <c r="G112" t="n">
-        <v>4008571.47621445</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="J112" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4215,26 +3911,21 @@
         <v>60002</v>
       </c>
       <c r="G113" t="n">
-        <v>4008571.47621445</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
         <v>7.254</v>
       </c>
-      <c r="J113" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4256,26 +3947,21 @@
         <v>138481.3184</v>
       </c>
       <c r="G114" t="n">
-        <v>4008571.47621445</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
         <v>7.254</v>
       </c>
-      <c r="J114" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4297,26 +3983,21 @@
         <v>33530</v>
       </c>
       <c r="G115" t="n">
-        <v>4042101.47621445</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
         <v>7.254</v>
       </c>
-      <c r="J115" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4338,26 +4019,21 @@
         <v>69</v>
       </c>
       <c r="G116" t="n">
-        <v>4042032.47621445</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
         <v>7.337</v>
       </c>
-      <c r="J116" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4379,26 +4055,19 @@
         <v>61825.0981</v>
       </c>
       <c r="G117" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4420,26 +4089,19 @@
         <v>41651.6388</v>
       </c>
       <c r="G118" t="n">
-        <v>4042032.47621445</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4461,26 +4123,19 @@
         <v>68061.17479999999</v>
       </c>
       <c r="G119" t="n">
-        <v>4110093.65101445</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4502,24 +4157,19 @@
         <v>88.5</v>
       </c>
       <c r="G120" t="n">
-        <v>4110005.15101445</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4541,24 +4191,19 @@
         <v>2325</v>
       </c>
       <c r="G121" t="n">
-        <v>4112330.15101445</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4580,24 +4225,19 @@
         <v>113149.7586</v>
       </c>
       <c r="G122" t="n">
-        <v>3999180.392414451</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4619,26 +4259,19 @@
         <v>292775.2436</v>
       </c>
       <c r="G123" t="n">
-        <v>3999180.392414451</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7.254</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4660,26 +4293,21 @@
         <v>10064</v>
       </c>
       <c r="G124" t="n">
-        <v>3989116.392414451</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
         <v>7.254</v>
       </c>
-      <c r="J124" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4701,26 +4329,21 @@
         <v>300003</v>
       </c>
       <c r="G125" t="n">
-        <v>3689113.392414451</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
         <v>7.253</v>
       </c>
-      <c r="J125" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4742,26 +4365,21 @@
         <v>636.1645</v>
       </c>
       <c r="G126" t="n">
-        <v>3689113.392414451</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
         <v>7.23</v>
       </c>
-      <c r="J126" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4783,26 +4401,19 @@
         <v>63493.5973</v>
       </c>
       <c r="G127" t="n">
-        <v>3689113.392414451</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="J127" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4824,26 +4435,21 @@
         <v>10685.9689</v>
       </c>
       <c r="G128" t="n">
-        <v>3689113.392414451</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
         <v>7.23</v>
       </c>
-      <c r="J128" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4865,26 +4471,21 @@
         <v>10003.0009</v>
       </c>
       <c r="G129" t="n">
-        <v>3689113.392414451</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
         <v>7.23</v>
       </c>
-      <c r="J129" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4906,26 +4507,21 @@
         <v>12351.8152</v>
       </c>
       <c r="G130" t="n">
-        <v>3676761.577214451</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
         <v>7.23</v>
       </c>
-      <c r="J130" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
